--- a/Literatur/Literaturliste.xlsx
+++ b/Literatur/Literaturliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Markus Brandt\OneDrive\Markus\Arbeit_Wasserstoff\Literatur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Markus Brandt\OneDrive\Markus\popDH\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDEAC937-E101-45A9-8F84-EB8EEDF237ED}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5A85574-423F-4823-9248-A5854F69BEE6}"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="3975" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literaturliste" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Pos.</t>
   </si>
@@ -110,6 +110,49 @@
   </si>
   <si>
     <t>Sensitivities of power-to-gas within an optimised energy system</t>
+  </si>
+  <si>
+    <t>Untersuchung der Rolle von PtG (Power-to-Gas) in als Speichertechnologie in der Energiewende</t>
+  </si>
+  <si>
+    <t>Dieses Paper untersucht anhand einen bestehenden Energiesystems das Potential von PtG in der Energieversorgung. Hierbei wird eine auf den LCOE ausgerichtete Einsatzoptimierung durchgeführt.
+Es werden Windkraft, PV, Biomasse, Wasserkraft, PtH und CHP Technologien berücksichtig
+Unter PtG wird in diesem Paper die Methanisierung von regenerativ erzeugtem Wasserstoff verstanden
+Es wurden ausschließlich Szenarien mit 100% erneuerbarer Energie betrachtet.
+Es zeigt sich, dass sich in dieser Betrachtung die LCOE durch den Einsatz von PtG als Speichertechnologie um bis zu 10% senken lassen.</t>
+  </si>
+  <si>
+    <t>PtG</t>
+  </si>
+  <si>
+    <t>Optimierung</t>
+  </si>
+  <si>
+    <t>Quelle zeigt das Potential von PtG in einem speziellen Energiesystem 
+Gut als Quelle: Was ist bereits gemacht worden und was steht noch offen?
+Es gibt einige Quellen für Betriebs- und Investitionskosten an</t>
+  </si>
+  <si>
+    <t>Goetz et al.</t>
+  </si>
+  <si>
+    <t>Renewable Power-to-Gas: A technological and economic review</t>
+  </si>
+  <si>
+    <t>Elsevier - Renewable Energy</t>
+  </si>
+  <si>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Untersuchung der PtG Process Chain und ein Vergleich ihrer Komponenten</t>
+  </si>
+  <si>
+    <t>Untersuchung der PtG Process Chain und ihrer Komponenten -&gt; Erneuerbare Energie über electrolysis zur H2 und dann über methanisierung zu CH4
+Es werden 3 verschiedene Brennstoffzellen miteinander verglichen:
+1. Alkaline electrolysis -&gt; derzeit am kostengünstigsten
+2. PEM electrolysis -&gt; in Zukunft wohl die to-go technologie in PtG chains
+3. Solid oxide electrolysis</t>
   </si>
 </sst>
 </file>
@@ -761,10 +804,10 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +991,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
@@ -961,27 +1004,59 @@
       <c r="D9" s="13">
         <v>2015</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11"/>
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">

--- a/Literatur/Literaturliste.xlsx
+++ b/Literatur/Literaturliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Markus Brandt\OneDrive\Markus\popDH\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5A85574-423F-4823-9248-A5854F69BEE6}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3EA3A19-8F72-4DD6-8584-2A368DE6C930}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10725" yWindow="300" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literaturliste" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Pos.</t>
   </si>
@@ -148,11 +148,42 @@
     <t>Untersuchung der PtG Process Chain und ein Vergleich ihrer Komponenten</t>
   </si>
   <si>
-    <t>Untersuchung der PtG Process Chain und ihrer Komponenten -&gt; Erneuerbare Energie über electrolysis zur H2 und dann über methanisierung zu CH4
-Es werden 3 verschiedene Brennstoffzellen miteinander verglichen:
+    <r>
+      <t xml:space="preserve">Untersuchung der PtG Process Chain und ihrer Komponenten -&gt; Erneuerbare Energie über electrolysis zur H2 und dann über methanisierung zu CH4
+Es werden 3 verschiedene Brennstoffzellen hinsichtlich </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kosten, Effizienz und Flexibilität innerhalb der process chain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miteinander verglichen:
 1. Alkaline electrolysis -&gt; derzeit am kostengünstigsten
 2. PEM electrolysis -&gt; in Zukunft wohl die to-go technologie in PtG chains
-3. Solid oxide electrolysis</t>
+3. Solid oxide electrolysis
+Kritischer Aspekt von PtG ist die Verfügbarkeit von CO2-Quellen, dynamisches Verhalten der prozess-schritte und die effizienz/wirtschaftlichkeit</t>
+    </r>
+  </si>
+  <si>
+    <t>Sehr gute Quelle. Gibt gute Auskunft über Betrieb von verschiedenen Brennstoffzellen und Ihre Vor und Nachteile. Alles gut mit Quellen belegt.
+P2G kann eine wichtige Rollen in der Zukunft spielen. Einige Hürden müssen noch überwunden werden.
+1. Improvement in efficiency (during transient operation) and cost reduction are required
+2. Currently, alkaline electrolysis is the cheapest and most reliable technology
+3. In the near future, PEM electrolysis could be the better choice for PtG plants because of the better performance with respect to transient operation</t>
   </si>
 </sst>
 </file>
@@ -804,10 +835,10 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1058,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -1052,8 +1083,12 @@
       <c r="H10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>31</v>
       </c>

--- a/Literatur/Literaturliste.xlsx
+++ b/Literatur/Literaturliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Markus Brandt\OneDrive\Markus\popDH\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3EA3A19-8F72-4DD6-8584-2A368DE6C930}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E55BA3C8-2909-48ED-8FBF-46B32FF8EE9C}"/>
   <bookViews>
-    <workbookView xWindow="-10725" yWindow="300" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literaturliste" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Pos.</t>
   </si>
@@ -184,6 +184,27 @@
 1. Improvement in efficiency (during transient operation) and cost reduction are required
 2. Currently, alkaline electrolysis is the cheapest and most reliable technology
 3. In the near future, PEM electrolysis could be the better choice for PtG plants because of the better performance with respect to transient operation</t>
+  </si>
+  <si>
+    <t>Jentsch et al.</t>
+  </si>
+  <si>
+    <t>Optimal use of power-to-gas energy storage systems in an 85% renewable scenario</t>
+  </si>
+  <si>
+    <t>Einsatzoptimierung und Auslegungsoptimierung von PtG in 85% erneuerbarem Szenario</t>
+  </si>
+  <si>
+    <t>Paper zeigt das Potential von PtG in einem 85% renewable scenario.
+Auch bei dieser Quelle inkludiert PtG die Methanisierung.
+Es wird von einem maximalen Anteil von 5% H2 im Gasnetz - Anteilig wird in dieser Arbeit Wasserstoff vor der Methanisierung zur Feuerung im CHP verwendet.
+Im Norden kann Power-to-gas am besten eingesetzt werden da hier der größte nutzen aus überschüssiger Energie gezogen werden kann (Windkraft)</t>
+  </si>
+  <si>
+    <t>Optimierung und Auslegung</t>
+  </si>
+  <si>
+    <t>In ansetzten hat diese Quelle gemacht was ich vorhabe. Aber auch hier wurde wieder die Methanisierung betrachtet.</t>
   </si>
 </sst>
 </file>
@@ -835,10 +856,10 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,18 +1115,40 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/Literatur/Literaturliste.xlsx
+++ b/Literatur/Literaturliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Markus Brandt\OneDrive\Markus\popDH\Literatur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus Brandt\OneDrive\Markus\popDH\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E55BA3C8-2909-48ED-8FBF-46B32FF8EE9C}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{D3462C31-A510-4C4E-A6CC-E5B0EB1CE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BA35290-A953-4427-89FA-5D544C15A918}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1995" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literaturliste" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Pos.</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>In ansetzten hat diese Quelle gemacht was ich vorhabe. Aber auch hier wurde wieder die Methanisierung betrachtet.</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -856,10 +859,10 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1155,9 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
